--- a/data/trans_orig/MCS12_SP_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>205954</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>183300</v>
+        <v>180120</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>233741</v>
+        <v>228467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1996211870790305</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1776638785354862</v>
+        <v>0.1745821043069265</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2265543078981842</v>
+        <v>0.2214423107038344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>233</v>
@@ -765,19 +765,19 @@
         <v>238982</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>212110</v>
+        <v>210681</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>265729</v>
+        <v>268149</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1817198481205347</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1612866969724123</v>
+        <v>0.1601997350162883</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2020581521503043</v>
+        <v>0.2038982279632396</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>443</v>
@@ -786,19 +786,19 @@
         <v>444936</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>407007</v>
+        <v>408624</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>482621</v>
+        <v>484739</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1895896883756105</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1734278461435855</v>
+        <v>0.1741171815538675</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2056475800715465</v>
+        <v>0.20654994095887</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>284064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257208</v>
+        <v>257804</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>313380</v>
+        <v>313601</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.275330028061566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2492992064151821</v>
+        <v>0.2498769618126767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3037441295468689</v>
+        <v>0.3039583362653601</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>338</v>
@@ -836,19 +836,19 @@
         <v>339120</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308662</v>
+        <v>310405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>373258</v>
+        <v>372295</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.257863875558652</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2347037718694023</v>
+        <v>0.2360294924347489</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2838218521888232</v>
+        <v>0.2830897385227129</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>625</v>
@@ -857,19 +857,19 @@
         <v>623184</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>580682</v>
+        <v>585897</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>668592</v>
+        <v>666225</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.265542397840556</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.247432035359798</v>
+        <v>0.2496540531656794</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2848911062377709</v>
+        <v>0.2838823530741514</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>262168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>235523</v>
+        <v>233424</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>292543</v>
+        <v>290195</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.254107276369211</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2282814071690968</v>
+        <v>0.2262470756534025</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2835483231202373</v>
+        <v>0.2812722049228181</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>303</v>
@@ -907,19 +907,19 @@
         <v>307297</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>278255</v>
+        <v>278900</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>344721</v>
+        <v>341023</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2336656794131081</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2115829259185556</v>
+        <v>0.2120731741120617</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2621227416974946</v>
+        <v>0.259310643144382</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>570</v>
@@ -928,19 +928,19 @@
         <v>569465</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>528181</v>
+        <v>529758</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>612186</v>
+        <v>610326</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2426522754982476</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.225060941228113</v>
+        <v>0.2257331237427811</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2608558321590213</v>
+        <v>0.2600633637133841</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>279537</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>249812</v>
+        <v>251139</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>307691</v>
+        <v>307512</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2709415084901924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2421310219876472</v>
+        <v>0.2434166222839543</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2982299877929025</v>
+        <v>0.2980567238393367</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>417</v>
@@ -978,19 +978,19 @@
         <v>429714</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>396222</v>
+        <v>394977</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>463240</v>
+        <v>463820</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3267505969077051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3012834841421238</v>
+        <v>0.3003368333020084</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3522434743652472</v>
+        <v>0.3526844492346717</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>691</v>
@@ -999,19 +999,19 @@
         <v>709250</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>666170</v>
+        <v>664158</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>754658</v>
+        <v>755354</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.302215638285586</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2838588379085282</v>
+        <v>0.2830015693392276</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3215640115036053</v>
+        <v>0.3218607812085922</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>424755</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>387651</v>
+        <v>388548</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>462061</v>
+        <v>465178</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2508275844842666</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2289172696099918</v>
+        <v>0.2294469030091773</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2728580628959965</v>
+        <v>0.2746985147873929</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>226</v>
@@ -1124,19 +1124,19 @@
         <v>229188</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>202306</v>
+        <v>202547</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>258053</v>
+        <v>262733</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1443543783031581</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1274228214014204</v>
+        <v>0.1275745092029213</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1625356575940229</v>
+        <v>0.165483142700642</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>641</v>
@@ -1145,19 +1145,19 @@
         <v>653942</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>609224</v>
+        <v>608883</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>700923</v>
+        <v>704887</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1993066367352149</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1856773974666627</v>
+        <v>0.1855736659660749</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2136251627571297</v>
+        <v>0.2148335814070024</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>610586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>568663</v>
+        <v>570706</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>645440</v>
+        <v>649821</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3605652683397912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3358087556281142</v>
+        <v>0.3370153572022943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3811473068614598</v>
+        <v>0.3837342568700332</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>508</v>
@@ -1195,19 +1195,19 @@
         <v>517945</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>483244</v>
+        <v>485171</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>559022</v>
+        <v>558191</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3262288962255617</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.304372635559502</v>
+        <v>0.3055859997753951</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3521017723118928</v>
+        <v>0.3515778456977641</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1105</v>
@@ -1216,19 +1216,19 @@
         <v>1128531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1075249</v>
+        <v>1075641</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1179955</v>
+        <v>1179785</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3439503611998661</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3277112819213241</v>
+        <v>0.3278308207738513</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.359623382901458</v>
+        <v>0.3595715815346373</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>411644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>378236</v>
+        <v>379357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>450003</v>
+        <v>451080</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.243085393122894</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2233573356984226</v>
+        <v>0.2240191174272951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2657374320657095</v>
+        <v>0.2663735193622078</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>466</v>
@@ -1266,19 +1266,19 @@
         <v>477126</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>440435</v>
+        <v>441019</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>512927</v>
+        <v>510109</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3005188193340099</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2774094333475018</v>
+        <v>0.2777769279044079</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3230687158299764</v>
+        <v>0.3212937517442112</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>863</v>
@@ -1287,19 +1287,19 @@
         <v>888770</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>838748</v>
+        <v>837922</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>939929</v>
+        <v>940043</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2708766530746107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2556311427573182</v>
+        <v>0.2553796200756359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.286468799899012</v>
+        <v>0.2865036428526023</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>246428</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>218469</v>
+        <v>219381</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>275727</v>
+        <v>278641</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1455217540530482</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1290108180957088</v>
+        <v>0.1295496875372743</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1628231835259845</v>
+        <v>0.1645439862092421</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>354</v>
@@ -1337,19 +1337,19 @@
         <v>363415</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>327479</v>
+        <v>329300</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>399612</v>
+        <v>395366</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2288979061372704</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2062633948290559</v>
+        <v>0.2074107155852027</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2516969622263756</v>
+        <v>0.2490220394077242</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>594</v>
@@ -1358,19 +1358,19 @@
         <v>609843</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>565600</v>
+        <v>562398</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>658622</v>
+        <v>655297</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1858663489903083</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1723819662256908</v>
+        <v>0.1714061960199854</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.200732880414219</v>
+        <v>0.1997193954236451</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>144723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>122524</v>
+        <v>125736</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>166539</v>
+        <v>168674</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.262460789113733</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2222024828126808</v>
+        <v>0.2280265097905515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3020248122730873</v>
+        <v>0.3058976461181778</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -1483,19 +1483,19 @@
         <v>73189</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58057</v>
+        <v>57259</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89961</v>
+        <v>88668</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1536244554587399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1218633423774918</v>
+        <v>0.1201877494399611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1888308958510874</v>
+        <v>0.1861166290364036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>209</v>
@@ -1504,19 +1504,19 @@
         <v>217912</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>191242</v>
+        <v>191399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>246279</v>
+        <v>245010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2120133202768976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1860660796341403</v>
+        <v>0.1862181027778192</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2396130073036518</v>
+        <v>0.2383782324692746</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>190349</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>167988</v>
+        <v>167839</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>214138</v>
+        <v>214058</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3452060291247143</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3046530620131965</v>
+        <v>0.3043819840501263</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3883478273046299</v>
+        <v>0.3882018785967133</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>141</v>
@@ -1554,19 +1554,19 @@
         <v>149877</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>129639</v>
+        <v>131542</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>170735</v>
+        <v>170638</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3145943630154103</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2721152570085147</v>
+        <v>0.2761090748708794</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.358376051576358</v>
+        <v>0.3581739765243917</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>324</v>
@@ -1575,19 +1575,19 @@
         <v>340226</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>309364</v>
+        <v>310461</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>372739</v>
+        <v>373306</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3310170076809377</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3009902225375843</v>
+        <v>0.3020578364551109</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.362649758152178</v>
+        <v>0.3632019842927193</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>131761</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113553</v>
+        <v>111875</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154179</v>
+        <v>153663</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2389542092459601</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2059329019320976</v>
+        <v>0.2028898678805222</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2796100492582116</v>
+        <v>0.2786741377204846</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -1625,19 +1625,19 @@
         <v>149338</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>130829</v>
+        <v>129506</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>171028</v>
+        <v>169644</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3134650120157347</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2746123651623732</v>
+        <v>0.2718370327188861</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.358992019754</v>
+        <v>0.3560864520789763</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>268</v>
@@ -1646,19 +1646,19 @@
         <v>281100</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>251903</v>
+        <v>252337</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>310725</v>
+        <v>310068</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2734912179314171</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2450849626407851</v>
+        <v>0.24550741181279</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3023143096373432</v>
+        <v>0.3016754482898892</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>84574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70288</v>
+        <v>69153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102334</v>
+        <v>104296</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1533789725155926</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1274706427223554</v>
+        <v>0.1254123379647574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1855871948840142</v>
+        <v>0.1891443937987196</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -1696,19 +1696,19 @@
         <v>104008</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86803</v>
+        <v>87393</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>123180</v>
+        <v>123167</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2183161695101151</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1822016854118515</v>
+        <v>0.1834403860305117</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2585581074674414</v>
+        <v>0.2585303353689027</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>178</v>
@@ -1717,19 +1717,19 @@
         <v>188583</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>164044</v>
+        <v>163694</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>217083</v>
+        <v>216617</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1834784541107476</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1596042520039581</v>
+        <v>0.1592629128619563</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2112069673922409</v>
+        <v>0.2107538138196332</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>775431</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>726550</v>
+        <v>727588</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>828115</v>
+        <v>825910</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.236661384436829</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2217428882373933</v>
+        <v>0.2220597595506123</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2527404829599398</v>
+        <v>0.2520675910329023</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>528</v>
@@ -1842,19 +1842,19 @@
         <v>541358</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>498350</v>
+        <v>500850</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>585575</v>
+        <v>581910</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1602031638745793</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.147476011578912</v>
+        <v>0.1482155516346746</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1732881800913794</v>
+        <v>0.1722036099004695</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1293</v>
@@ -1863,19 +1863,19 @@
         <v>1316789</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1256767</v>
+        <v>1252431</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1384957</v>
+        <v>1379175</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1978426522314297</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1888244628810605</v>
+        <v>0.1881730314611358</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2080845036800276</v>
+        <v>0.2072158660530506</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>1084999</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1032007</v>
+        <v>1029178</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1141911</v>
+        <v>1136399</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3311414700565793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3149681426636225</v>
+        <v>0.3141047136494167</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3485109911039784</v>
+        <v>0.34682855234985</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>987</v>
@@ -1913,19 +1913,19 @@
         <v>1006941</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>955646</v>
+        <v>952125</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1066597</v>
+        <v>1063269</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2979823868317861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.282802604218703</v>
+        <v>0.2817607756046638</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3156363400280712</v>
+        <v>0.3146514305530292</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2054</v>
@@ -1934,19 +1934,19 @@
         <v>2091941</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2010819</v>
+        <v>2009362</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2159642</v>
+        <v>2162412</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3143062159476794</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3021180451233294</v>
+        <v>0.3018991083118027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.324478047548262</v>
+        <v>0.3248941799373185</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>805573</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>754480</v>
+        <v>754252</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>857369</v>
+        <v>860086</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2458607451275041</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2302669922306674</v>
+        <v>0.2301973711990143</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2616688691622402</v>
+        <v>0.2624980844308191</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>914</v>
@@ -1984,19 +1984,19 @@
         <v>933761</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>883785</v>
+        <v>880628</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>986138</v>
+        <v>984111</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2763261830410501</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2615369334512464</v>
+        <v>0.2606028674120588</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2918261153827796</v>
+        <v>0.2912262162765219</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1701</v>
@@ -2005,19 +2005,19 @@
         <v>1739334</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1667207</v>
+        <v>1660252</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1803994</v>
+        <v>1807915</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2613284040291823</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2504915649871888</v>
+        <v>0.249446654530155</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2710432837518846</v>
+        <v>0.2716324817629403</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>610539</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>567755</v>
+        <v>565139</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>656883</v>
+        <v>658637</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1863364003790876</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1732786090292094</v>
+        <v>0.1724801653234511</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.200480537593351</v>
+        <v>0.2010159286557666</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>868</v>
@@ -2055,19 +2055,19 @@
         <v>897137</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>848940</v>
+        <v>844505</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>952736</v>
+        <v>945437</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2654882662525845</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2512254481176807</v>
+        <v>0.2499129579972557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2819415622131851</v>
+        <v>0.2797816737309765</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1463</v>
@@ -2076,19 +2076,19 @@
         <v>1507677</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1447334</v>
+        <v>1439658</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1579485</v>
+        <v>1577958</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2265227277917087</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2174564544668633</v>
+        <v>0.2163032369262539</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2373116122914047</v>
+        <v>0.2370823018040929</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>245556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>219223</v>
+        <v>221286</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>274540</v>
+        <v>273692</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2519444810366295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2249269496820764</v>
+        <v>0.227042694795582</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2816828189716243</v>
+        <v>0.2808120812364552</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>238</v>
@@ -2440,19 +2440,19 @@
         <v>254963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>227897</v>
+        <v>226054</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>287003</v>
+        <v>282603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1905845890241313</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1703527062284201</v>
+        <v>0.1689745212117453</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.214534385573732</v>
+        <v>0.211245273150333</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>467</v>
@@ -2461,19 +2461,19 @@
         <v>500519</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>459721</v>
+        <v>457158</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>539692</v>
+        <v>540759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2164464498010994</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1988032189461356</v>
+        <v>0.1976951157453271</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2333865260937817</v>
+        <v>0.2338476744307899</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>197759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170749</v>
+        <v>173791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>224552</v>
+        <v>227571</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2029037651397163</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1751915103615676</v>
+        <v>0.1783129276592204</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2303943800871623</v>
+        <v>0.2334920473865321</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>169</v>
@@ -2511,19 +2511,19 @@
         <v>183873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>158952</v>
+        <v>158202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>211645</v>
+        <v>211794</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1374445051455711</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1188161745084571</v>
+        <v>0.1182558331819761</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1582041147613436</v>
+        <v>0.1583152980726141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>351</v>
@@ -2532,19 +2532,19 @@
         <v>381632</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>344886</v>
+        <v>349467</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>417318</v>
+        <v>419414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1650341604237636</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1491439479252543</v>
+        <v>0.1511247869009455</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1804665709210979</v>
+        <v>0.1813729072435706</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>241393</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>217254</v>
+        <v>214379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>268173</v>
+        <v>271573</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2476735069969032</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.222906584403905</v>
+        <v>0.219956453538435</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2751497860417459</v>
+        <v>0.278638257365619</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>341</v>
@@ -2582,19 +2582,19 @@
         <v>364353</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>330075</v>
+        <v>331611</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>398715</v>
+        <v>402602</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.272353020607884</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.246730324024304</v>
+        <v>0.2478784191582186</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2980388284261603</v>
+        <v>0.3009440307356892</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>573</v>
@@ -2603,19 +2603,19 @@
         <v>605746</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>562977</v>
+        <v>566253</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>652480</v>
+        <v>651022</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.261951142049811</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2434560188132243</v>
+        <v>0.2448726358035153</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.282160807151248</v>
+        <v>0.2815302462017151</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>289935</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>260422</v>
+        <v>260148</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>318800</v>
+        <v>317654</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2974782468267511</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2671969049930977</v>
+        <v>0.2669162295389753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3270940677885746</v>
+        <v>0.3259180993296399</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>499</v>
@@ -2653,19 +2653,19 @@
         <v>534608</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>498867</v>
+        <v>495794</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>572703</v>
+        <v>569918</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3996178852224136</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3729020468958563</v>
+        <v>0.3706045515720023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4280938214595535</v>
+        <v>0.4260125262804365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>764</v>
@@ -2674,19 +2674,19 @@
         <v>824543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>778239</v>
+        <v>779684</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>873760</v>
+        <v>871937</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.356568247725326</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3365447023505884</v>
+        <v>0.3371693152519755</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.37785184252137</v>
+        <v>0.3770636988840867</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>595993</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>555302</v>
+        <v>555066</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>637079</v>
+        <v>638515</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3034654634138499</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2827464678311322</v>
+        <v>0.2826265418781468</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.324385301442923</v>
+        <v>0.3251166314136707</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>363</v>
@@ -2799,19 +2799,19 @@
         <v>392454</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>355802</v>
+        <v>356290</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>428136</v>
+        <v>429652</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2232642108554563</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2024131306965575</v>
+        <v>0.2026904395868133</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2435630682864982</v>
+        <v>0.2444254144672666</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>924</v>
@@ -2820,19 +2820,19 @@
         <v>988448</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>936688</v>
+        <v>932018</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1046668</v>
+        <v>1042144</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2655860803947394</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2516788061012362</v>
+        <v>0.2504240017775578</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.281229178139778</v>
+        <v>0.280013650351163</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>441513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>402270</v>
+        <v>405362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>476846</v>
+        <v>479299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2248078932613713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2048260691285514</v>
+        <v>0.2064004977148583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2427987194005116</v>
+        <v>0.2440473877159533</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>300</v>
@@ -2870,19 +2870,19 @@
         <v>316279</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>284131</v>
+        <v>284646</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>349557</v>
+        <v>348703</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1799284791226587</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1616398619440037</v>
+        <v>0.1619327121847953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1988599631802899</v>
+        <v>0.198374528965235</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>718</v>
@@ -2891,19 +2891,19 @@
         <v>757792</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>708324</v>
+        <v>708883</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>808735</v>
+        <v>817249</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2036111604971813</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.190319683869575</v>
+        <v>0.1904698888383358</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2172990868923082</v>
+        <v>0.2195867727018123</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>517391</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>478384</v>
+        <v>480496</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>560128</v>
+        <v>560103</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.263443068655335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2435815045112769</v>
+        <v>0.2446571969686454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2852038014888639</v>
+        <v>0.285191266100811</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>484</v>
@@ -2941,19 +2941,19 @@
         <v>518713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>481176</v>
+        <v>480171</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>559048</v>
+        <v>560485</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2950914737367883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.273737082521937</v>
+        <v>0.2731653365599375</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3180379715109879</v>
+        <v>0.3188552216810355</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>973</v>
@@ -2962,19 +2962,19 @@
         <v>1036104</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>982134</v>
+        <v>984168</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1091389</v>
+        <v>1098809</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2783907411639593</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2638897681869921</v>
+        <v>0.2644361703989279</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2932452908888361</v>
+        <v>0.2952390905631089</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>409060</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>372053</v>
+        <v>371716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>445975</v>
+        <v>449466</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2082835746694438</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1894402566079547</v>
+        <v>0.1892687895252758</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2270800383882202</v>
+        <v>0.2288575665666958</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>488</v>
@@ -3012,19 +3012,19 @@
         <v>530357</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>489283</v>
+        <v>491584</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>567429</v>
+        <v>572880</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3017158362850966</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2783489043460914</v>
+        <v>0.2796583190729654</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3228056615332003</v>
+        <v>0.3259066080679449</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>876</v>
@@ -3033,19 +3033,19 @@
         <v>939417</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>888413</v>
+        <v>887174</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>994177</v>
+        <v>997390</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.25241201794412</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2387077649004617</v>
+        <v>0.2383747331560321</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2671255727039545</v>
+        <v>0.2679887353311339</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>153775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131503</v>
+        <v>134045</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>176370</v>
+        <v>177602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3195791215800068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.273293076719263</v>
+        <v>0.2785754630955443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3665357636953262</v>
+        <v>0.369096586754787</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -3158,19 +3158,19 @@
         <v>123847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>102868</v>
+        <v>104717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144349</v>
+        <v>145925</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2700372876829918</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2242925402006346</v>
+        <v>0.2283249171325129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3147380233268859</v>
+        <v>0.3181759023622051</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>253</v>
@@ -3179,19 +3179,19 @@
         <v>277623</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>247544</v>
+        <v>245797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>308686</v>
+        <v>306418</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.295402570883103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2633973207677363</v>
+        <v>0.2615380135446321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.328455190648432</v>
+        <v>0.3260411222951528</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>110938</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>90277</v>
+        <v>91621</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>132044</v>
+        <v>130076</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2305536569144618</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1876151549240857</v>
+        <v>0.1904081459055045</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2744159327961189</v>
+        <v>0.2703273371402416</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>81</v>
@@ -3229,19 +3229,19 @@
         <v>85569</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>70187</v>
+        <v>68674</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>103994</v>
+        <v>104222</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1865737809902968</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1530363155387927</v>
+        <v>0.1497364808340225</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2267487387010544</v>
+        <v>0.2272458132115664</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>185</v>
@@ -3250,19 +3250,19 @@
         <v>196507</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>169979</v>
+        <v>171215</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>220482</v>
+        <v>223417</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2090913569492564</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1808648306361534</v>
+        <v>0.1821793769233726</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2346024111366236</v>
+        <v>0.2377251826793077</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>154977</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132652</v>
+        <v>132505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>176699</v>
+        <v>179642</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3220757392348647</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2756795935545787</v>
+        <v>0.2753748806468497</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3672192248529004</v>
+        <v>0.3733358717486928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>140</v>
@@ -3300,19 +3300,19 @@
         <v>154596</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132733</v>
+        <v>133628</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>177796</v>
+        <v>176323</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.337081281111935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2894116250170621</v>
+        <v>0.2913619248439354</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3876676663165735</v>
+        <v>0.3844551192761519</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>276</v>
@@ -3321,19 +3321,19 @@
         <v>309573</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>276620</v>
+        <v>278884</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>338238</v>
+        <v>342808</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3293984847892508</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2943355094603203</v>
+        <v>0.2967445481435725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3598992810393579</v>
+        <v>0.3647621413484504</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>61491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45527</v>
+        <v>47293</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78994</v>
+        <v>78395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1277914822706667</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0946146036278768</v>
+        <v>0.09828523240505882</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1641668116425668</v>
+        <v>0.1629223464710536</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -3371,19 +3371,19 @@
         <v>94619</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75675</v>
+        <v>77778</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112962</v>
+        <v>114276</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2063076502147764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1650009910624614</v>
+        <v>0.169587139302407</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2463017795300587</v>
+        <v>0.2491683482348639</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>136</v>
@@ -3392,19 +3392,19 @@
         <v>156110</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>134258</v>
+        <v>130984</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>186589</v>
+        <v>181594</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1661075873783898</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1428558203540969</v>
+        <v>0.1393726019675185</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1985382196989003</v>
+        <v>0.1932230353032105</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>995325</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>938000</v>
+        <v>940252</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1052605</v>
+        <v>1053535</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2910491824848933</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2742865220856266</v>
+        <v>0.2749449666957794</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3077988384096677</v>
+        <v>0.3080708083917532</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>710</v>
@@ -3517,19 +3517,19 @@
         <v>771265</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>721939</v>
+        <v>723508</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>823153</v>
+        <v>821373</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2169992543519693</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2031209621050781</v>
+        <v>0.2035625967265138</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2315980638369595</v>
+        <v>0.2310972460112256</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1644</v>
@@ -3538,19 +3538,19 @@
         <v>1766590</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1689034</v>
+        <v>1693195</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1845909</v>
+        <v>1838080</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2533104329348224</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2421897321509003</v>
+        <v>0.2427864137506131</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2646838723077992</v>
+        <v>0.2635613501910751</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>750210</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>699399</v>
+        <v>703085</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>801785</v>
+        <v>798286</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.219373642957292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2045156563859035</v>
+        <v>0.205593370856496</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2344549574331264</v>
+        <v>0.2334318778390125</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>550</v>
@@ -3588,19 +3588,19 @@
         <v>585720</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>538826</v>
+        <v>543669</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>633734</v>
+        <v>635341</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1647951964570812</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1516014157671003</v>
+        <v>0.1529640282480151</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1783041370487259</v>
+        <v>0.1787562610478666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1254</v>
@@ -3609,19 +3609,19 @@
         <v>1335930</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1268829</v>
+        <v>1267825</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1403739</v>
+        <v>1401566</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1915583246276634</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1819367424426591</v>
+        <v>0.181792721592328</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2012814296003815</v>
+        <v>0.200969759406087</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>913761</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>856632</v>
+        <v>861585</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>967531</v>
+        <v>968782</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2671986472766026</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2504931449208147</v>
+        <v>0.2519415243924512</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2829219601197613</v>
+        <v>0.2832877217816889</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>965</v>
@@ -3659,19 +3659,19 @@
         <v>1037661</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>987602</v>
+        <v>981868</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1097322</v>
+        <v>1090594</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2919511051700817</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2778667457592377</v>
+        <v>0.2762534165393445</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3087369874846334</v>
+        <v>0.3068440374546973</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1822</v>
@@ -3680,19 +3680,19 @@
         <v>1951423</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1873449</v>
+        <v>1875191</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2024759</v>
+        <v>2031902</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2798134712574425</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2686328277577104</v>
+        <v>0.2688826874746423</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2903291356915806</v>
+        <v>0.2913533148043663</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>760486</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>710192</v>
+        <v>705983</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>814143</v>
+        <v>808167</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2223785272812121</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.207671824057069</v>
+        <v>0.2064410134810301</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2380687350128604</v>
+        <v>0.2363212247109535</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1069</v>
@@ -3730,19 +3730,19 @@
         <v>1159583</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1102350</v>
+        <v>1104636</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1214827</v>
+        <v>1221732</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3262544440208678</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3101514721623661</v>
+        <v>0.310794787278089</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3417976101437716</v>
+        <v>0.3437403162774704</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1776</v>
@@ -3751,19 +3751,19 @@
         <v>1920069</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1844585</v>
+        <v>1846340</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1994237</v>
+        <v>2006617</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2753177711800716</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2644941643767504</v>
+        <v>0.2647456893640491</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2859525968272872</v>
+        <v>0.2877277201830183</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>182786</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160501</v>
+        <v>160367</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>207618</v>
+        <v>206223</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2423104567415264</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.212768608258423</v>
+        <v>0.2125911436066992</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2752294029259104</v>
+        <v>0.2733799847893069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>194</v>
@@ -4115,19 +4115,19 @@
         <v>220810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>194741</v>
+        <v>193854</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>248305</v>
+        <v>249963</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.221995291324316</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1957868940607326</v>
+        <v>0.1948946524051741</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2496375879981605</v>
+        <v>0.251304563135388</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>375</v>
@@ -4136,19 +4136,19 @@
         <v>403596</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>367101</v>
+        <v>369900</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>441024</v>
+        <v>441586</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2307572230982592</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.209891014586773</v>
+        <v>0.2114912022397122</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2521569884152733</v>
+        <v>0.252477967356724</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>146304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>124803</v>
+        <v>125895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168284</v>
+        <v>168137</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1939484387519396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1654444385234609</v>
+        <v>0.1668925093178082</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2230856723429554</v>
+        <v>0.2228911436796981</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>144</v>
@@ -4186,19 +4186,19 @@
         <v>160057</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>137525</v>
+        <v>137419</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>184042</v>
+        <v>183071</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1609165370944872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1382633946472508</v>
+        <v>0.1381570478819455</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1850297548090361</v>
+        <v>0.1840535257728211</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>293</v>
@@ -4207,19 +4207,19 @@
         <v>306362</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>274654</v>
+        <v>275782</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>342748</v>
+        <v>337075</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1751631977906885</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1570344606558709</v>
+        <v>0.1576790663130807</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1959673370702106</v>
+        <v>0.1927234376621605</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>228238</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>204331</v>
+        <v>205605</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>255604</v>
+        <v>252974</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3025632109978197</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2708712881097758</v>
+        <v>0.2725600304640996</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3388408408001378</v>
+        <v>0.3353551537402012</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>208</v>
@@ -4257,19 +4257,19 @@
         <v>228667</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>202012</v>
+        <v>201359</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>256752</v>
+        <v>256417</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2298946908795415</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2030970304780727</v>
+        <v>0.2024400269581783</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2581303695313839</v>
+        <v>0.2577932955735017</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>438</v>
@@ -4278,19 +4278,19 @@
         <v>456905</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>422628</v>
+        <v>415906</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>495848</v>
+        <v>494529</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2612366269314313</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2416386426566509</v>
+        <v>0.2377957586041727</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2835028208263304</v>
+        <v>0.2827484594517792</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>197019</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175482</v>
+        <v>173180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>221650</v>
+        <v>219375</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2611778935087142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2326276909375395</v>
+        <v>0.229575741087942</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2938309277494717</v>
+        <v>0.2908144620149175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>346</v>
@@ -4328,19 +4328,19 @@
         <v>385126</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>352370</v>
+        <v>353813</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>420841</v>
+        <v>415799</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3871934807016553</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3542616185424643</v>
+        <v>0.3557121913390346</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4230998711827265</v>
+        <v>0.4180308828195288</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>548</v>
@@ -4349,19 +4349,19 @@
         <v>582145</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>539230</v>
+        <v>542575</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>621211</v>
+        <v>620521</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.332842952179621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3083065850865898</v>
+        <v>0.3102187536203879</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3551794111511771</v>
+        <v>0.3547845715157521</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>617976</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>578493</v>
+        <v>573315</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>663053</v>
+        <v>660263</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2976211679344745</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2786058454680063</v>
+        <v>0.2761118890037046</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3193304994042139</v>
+        <v>0.3179869445373034</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>491</v>
@@ -4474,19 +4474,19 @@
         <v>513870</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>474435</v>
+        <v>473953</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>557004</v>
+        <v>556377</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2584468231826582</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2386134052218994</v>
+        <v>0.238370739637118</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2801409645810288</v>
+        <v>0.2798254065362599</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1071</v>
@@ -4495,19 +4495,19 @@
         <v>1131846</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1074073</v>
+        <v>1077144</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1191185</v>
+        <v>1185757</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.27845846488907</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2642450677115287</v>
+        <v>0.2650005439596725</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2930571390800706</v>
+        <v>0.2917218653627256</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>503339</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>469262</v>
+        <v>463292</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>546767</v>
+        <v>540636</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2424112880120483</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2259996861341609</v>
+        <v>0.2231242701656013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2633266291437604</v>
+        <v>0.2603736647396979</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>416</v>
@@ -4545,19 +4545,19 @@
         <v>428877</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>394413</v>
+        <v>391288</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>466855</v>
+        <v>466670</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2157004216408979</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1983669064502233</v>
+        <v>0.1967954524942022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2348011240337301</v>
+        <v>0.2347081252896271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>890</v>
@@ -4566,19 +4566,19 @@
         <v>932216</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>879686</v>
+        <v>881274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>986509</v>
+        <v>991050</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2293452774993363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2164217295920577</v>
+        <v>0.2168124711308081</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2427025437491232</v>
+        <v>0.2438195641469242</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>598694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>555601</v>
+        <v>555159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>639383</v>
+        <v>637670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2883348629057831</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2675807430148632</v>
+        <v>0.2673682297769039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.307930769224341</v>
+        <v>0.3071058608263728</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>577</v>
@@ -4616,19 +4616,19 @@
         <v>594650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>553747</v>
+        <v>552269</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>634718</v>
+        <v>638275</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2990745240787691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2785026423768335</v>
+        <v>0.2777592752540918</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3192263308102561</v>
+        <v>0.3210155981575762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1142</v>
@@ -4637,19 +4637,19 @@
         <v>1193344</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1131808</v>
+        <v>1128763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1250237</v>
+        <v>1250564</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2935883250675631</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2784490607636575</v>
+        <v>0.2777000706137429</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3075852633219365</v>
+        <v>0.3076655825781409</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>356376</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>323594</v>
+        <v>320402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>394783</v>
+        <v>391089</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1716326811476941</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1558449500509805</v>
+        <v>0.1543073950285725</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.190129889166488</v>
+        <v>0.1883510762241575</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>424</v>
@@ -4687,19 +4687,19 @@
         <v>450903</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>413843</v>
+        <v>415903</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>490282</v>
+        <v>490746</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2267782310976748</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2081392721070082</v>
+        <v>0.2091753603003515</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2465837548449574</v>
+        <v>0.2468169476369392</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>757</v>
@@ -4708,19 +4708,19 @@
         <v>807279</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>755816</v>
+        <v>753837</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>855718</v>
+        <v>860248</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1986079325440306</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.185946990577778</v>
+        <v>0.1854601304603735</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2105250200856469</v>
+        <v>0.2116394774244227</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>155258</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133736</v>
+        <v>133642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178438</v>
+        <v>178795</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2838938067972593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2445401718372038</v>
+        <v>0.2443692733148931</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3262804427325001</v>
+        <v>0.3269322659320654</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -4833,19 +4833,19 @@
         <v>135721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117107</v>
+        <v>114802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156675</v>
+        <v>157388</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2471524950986768</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2132552134613692</v>
+        <v>0.2090573124710332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2853092282385791</v>
+        <v>0.2866077685493931</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>269</v>
@@ -4854,19 +4854,19 @@
         <v>290979</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>262728</v>
+        <v>259726</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>322024</v>
+        <v>321222</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2654853689358897</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2397096974304114</v>
+        <v>0.2369705802937477</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2938098712111599</v>
+        <v>0.2930787573694382</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>147044</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>125376</v>
+        <v>125750</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>167481</v>
+        <v>169057</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2688748682674078</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2292537142133592</v>
+        <v>0.2299383115805831</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3062445693207379</v>
+        <v>0.3091270385656381</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>130</v>
@@ -4904,19 +4904,19 @@
         <v>135337</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>115111</v>
+        <v>116748</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>157083</v>
+        <v>159730</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2464517703151053</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2096197162350924</v>
+        <v>0.2126008877301449</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2860533827763499</v>
+        <v>0.2908725320372984</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>267</v>
@@ -4925,19 +4925,19 @@
         <v>282381</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>253531</v>
+        <v>250480</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>314198</v>
+        <v>310211</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2576402610573911</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2313180146489908</v>
+        <v>0.2285348731523908</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2866701216054667</v>
+        <v>0.2830322018023666</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>160259</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138444</v>
+        <v>137626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>183716</v>
+        <v>181002</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2930383435659771</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2531498022190964</v>
+        <v>0.2516539195387703</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3359314180854059</v>
+        <v>0.3309688405715156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>162</v>
@@ -4975,19 +4975,19 @@
         <v>168531</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>146919</v>
+        <v>146258</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>189979</v>
+        <v>191722</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3068999471490517</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2675445291027594</v>
+        <v>0.2663409170635078</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3459568696406998</v>
+        <v>0.3491314361565798</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>309</v>
@@ -4996,19 +4996,19 @@
         <v>328790</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>294112</v>
+        <v>300591</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>357276</v>
+        <v>364696</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2999833995920474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2683434328425967</v>
+        <v>0.2742548830193651</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3259740079789766</v>
+        <v>0.3327438249221077</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>84326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67326</v>
+        <v>68358</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>104888</v>
+        <v>106683</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1541929813693558</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1231086309317267</v>
+        <v>0.1249952662506084</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1917906503227773</v>
+        <v>0.1950737354099737</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -5046,19 +5046,19 @@
         <v>109551</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>92637</v>
+        <v>91470</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>130059</v>
+        <v>128721</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1994957874371662</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1686945582766335</v>
+        <v>0.1665703450779119</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.236840508458969</v>
+        <v>0.23440435072912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>182</v>
@@ -5067,19 +5067,19 @@
         <v>193877</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>169454</v>
+        <v>169922</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>219727</v>
+        <v>223032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1768909704146717</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1546072767987202</v>
+        <v>0.155034872157789</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2004754609466663</v>
+        <v>0.2034914595101362</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>956020</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>903756</v>
+        <v>899938</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1009816</v>
+        <v>1012175</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2830455814051017</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2675719093132546</v>
+        <v>0.2664414986734122</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2989728628795273</v>
+        <v>0.2996713556251575</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>813</v>
@@ -5192,19 +5192,19 @@
         <v>870401</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>816495</v>
+        <v>821005</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>923624</v>
+        <v>923869</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2464259142767603</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2311643097991908</v>
+        <v>0.2324411161916159</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2614942252741149</v>
+        <v>0.2615635957553659</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1715</v>
@@ -5213,19 +5213,19 @@
         <v>1826421</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1747718</v>
+        <v>1754137</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1901688</v>
+        <v>1906142</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.264326389412247</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2529362518604322</v>
+        <v>0.2538651977497209</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2752192960812997</v>
+        <v>0.2758638639379293</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>796688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>748803</v>
+        <v>746889</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>848026</v>
+        <v>847307</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2358725890382315</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.221695645304829</v>
+        <v>0.2211289703538958</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.251072285914606</v>
+        <v>0.2508594000632867</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>690</v>
@@ -5263,19 +5263,19 @@
         <v>724271</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>678567</v>
+        <v>678032</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>775479</v>
+        <v>779891</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.205053912349005</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.192114432540111</v>
+        <v>0.1919628900050872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2195519470343387</v>
+        <v>0.2208008716731004</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1450</v>
@@ -5284,19 +5284,19 @@
         <v>1520958</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1456805</v>
+        <v>1451398</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1595408</v>
+        <v>1587658</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2201187395046059</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2108342229299532</v>
+        <v>0.2100516913002512</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2308934115977821</v>
+        <v>0.2297717037628151</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>987190</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>936853</v>
+        <v>935509</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1050437</v>
+        <v>1044242</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2922741413709025</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2773708626885021</v>
+        <v>0.276973067135781</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3109993441189998</v>
+        <v>0.3091653049387224</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>947</v>
@@ -5334,19 +5334,19 @@
         <v>991848</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>938450</v>
+        <v>934864</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1048741</v>
+        <v>1047359</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2808097072006436</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2656917488643485</v>
+        <v>0.2646766072666559</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2969170556903533</v>
+        <v>0.2965259827456418</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1889</v>
@@ -5355,19 +5355,19 @@
         <v>1979038</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1902945</v>
+        <v>1901656</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2067829</v>
+        <v>2053019</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.286413767392887</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2754012799100081</v>
+        <v>0.2752146615629273</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2992638087976853</v>
+        <v>0.2971205479704327</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>637720</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>593359</v>
+        <v>592378</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>686842</v>
+        <v>686519</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1888076881857643</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1756739125238325</v>
+        <v>0.1753833042221428</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2033509886462433</v>
+        <v>0.2032553415482172</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>876</v>
@@ -5405,19 +5405,19 @@
         <v>945580</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>892334</v>
+        <v>895468</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>997306</v>
+        <v>1000881</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2677104661735911</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2526356748913176</v>
+        <v>0.2535226966094529</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2823549631658085</v>
+        <v>0.2833672333977188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1487</v>
@@ -5426,19 +5426,19 @@
         <v>1583300</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1512278</v>
+        <v>1518938</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1653643</v>
+        <v>1665145</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2291411036902601</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2188624383917407</v>
+        <v>0.2198263574736029</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2393214028749509</v>
+        <v>0.2409860083710621</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>149692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130075</v>
+        <v>130422</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169781</v>
+        <v>171045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2609746838095994</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2267730952132941</v>
+        <v>0.2273783345323941</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2959968088305911</v>
+        <v>0.2982012876040886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>299</v>
@@ -5790,19 +5790,19 @@
         <v>176894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>158432</v>
+        <v>159268</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195151</v>
+        <v>195932</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.21799140451595</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1952408093746147</v>
+        <v>0.1962701358263728</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2404898996690797</v>
+        <v>0.2414528767253479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>473</v>
@@ -5811,19 +5811,19 @@
         <v>326586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>297800</v>
+        <v>300068</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>355139</v>
+        <v>354953</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2357918846505992</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2150084101286248</v>
+        <v>0.2166459626547829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2564068206557133</v>
+        <v>0.2562724807274983</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>138156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119225</v>
+        <v>116788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159406</v>
+        <v>159316</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2408615089450851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2078579011176859</v>
+        <v>0.2036100476854552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.277910372436567</v>
+        <v>0.2777528125990403</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -5861,19 +5861,19 @@
         <v>132901</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>116788</v>
+        <v>118930</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>149145</v>
+        <v>152601</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1637782717307683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1439214544573926</v>
+        <v>0.1465612293119526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1837955613437755</v>
+        <v>0.1880544317336211</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>393</v>
@@ -5882,19 +5882,19 @@
         <v>271057</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>247375</v>
+        <v>248102</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>300562</v>
+        <v>298243</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1957004204196568</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1786019776572182</v>
+        <v>0.1791268613546357</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2170027465792175</v>
+        <v>0.2153285593945941</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>134228</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116680</v>
+        <v>115817</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157947</v>
+        <v>155697</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2340147446654731</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2034203680008344</v>
+        <v>0.201916304739154</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2753655338084385</v>
+        <v>0.2714429192589661</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>321</v>
@@ -5932,19 +5932,19 @@
         <v>180798</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>163805</v>
+        <v>162669</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>200036</v>
+        <v>201318</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.222801900221699</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2018614586131031</v>
+        <v>0.2004616206597298</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2465103098626372</v>
+        <v>0.2480905047210315</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>478</v>
@@ -5953,19 +5953,19 @@
         <v>315026</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>290760</v>
+        <v>290920</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>343804</v>
+        <v>342352</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2274454271478496</v>
+        <v>0.2274454271478497</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.20992594600862</v>
+        <v>0.210041542668684</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2482232099036055</v>
+        <v>0.2471744004714244</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>151513</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>132437</v>
+        <v>133154</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>171562</v>
+        <v>172665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2641490625798423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.230891072476202</v>
+        <v>0.2321421939824102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2991034133968696</v>
+        <v>0.3010252421890399</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>552</v>
@@ -6003,19 +6003,19 @@
         <v>320879</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>298973</v>
+        <v>298576</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>341051</v>
+        <v>342076</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3954284235315827</v>
+        <v>0.3954284235315826</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3684332619419454</v>
+        <v>0.3679432126444953</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4202869218654489</v>
+        <v>0.4215505373914955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>748</v>
@@ -6024,19 +6024,19 @@
         <v>472392</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>441310</v>
+        <v>442227</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>503290</v>
+        <v>500467</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3410622677818944</v>
+        <v>0.3410622677818945</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3186216915093266</v>
+        <v>0.3192837104802975</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.363370323360851</v>
+        <v>0.3613322897336265</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>759963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>706968</v>
+        <v>709003</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>816717</v>
+        <v>812758</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3421764237806029</v>
+        <v>0.342176423780603</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3183152484605246</v>
+        <v>0.3192316925101634</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.367730226712105</v>
+        <v>0.3659477385675787</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>762</v>
@@ -6149,19 +6149,19 @@
         <v>614177</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>576937</v>
+        <v>571227</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>659732</v>
+        <v>652991</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2836294904222444</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2664318389242885</v>
+        <v>0.2637950831164029</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3046671762757072</v>
+        <v>0.3015539222271499</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1385</v>
@@ -6170,19 +6170,19 @@
         <v>1374140</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1304681</v>
+        <v>1303116</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1440212</v>
+        <v>1439562</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3132736588939632</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2974386223067971</v>
+        <v>0.2970817406867213</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3283366246350078</v>
+        <v>0.3281884536714444</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>573054</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>524170</v>
+        <v>531174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>617961</v>
+        <v>623050</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2580198945533329</v>
+        <v>0.258019894553333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2360098966337061</v>
+        <v>0.2391632852979067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2782395501792056</v>
+        <v>0.2805310281118497</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>693</v>
@@ -6220,19 +6220,19 @@
         <v>527521</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>490445</v>
+        <v>488860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>566643</v>
+        <v>562596</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2436111776237024</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2264894753470218</v>
+        <v>0.2257573952940521</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2616778734308679</v>
+        <v>0.2598090541641787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1189</v>
@@ -6241,19 +6241,19 @@
         <v>1100574</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1037934</v>
+        <v>1047097</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1164230</v>
+        <v>1164908</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2509067678044697</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2366260155039851</v>
+        <v>0.2387151071429711</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2654187854366669</v>
+        <v>0.2655734955518672</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>483548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>442060</v>
+        <v>441821</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>532419</v>
+        <v>532496</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2177195475079098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1990392935903384</v>
+        <v>0.1989317963585596</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2397241657161007</v>
+        <v>0.2397585633225712</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>680</v>
@@ -6291,19 +6291,19 @@
         <v>489705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>452895</v>
+        <v>454375</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>526350</v>
+        <v>523753</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2261478561572489</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2091489067345912</v>
+        <v>0.2098324471067149</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2430707129416005</v>
+        <v>0.2418712854477931</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1129</v>
@@ -6312,19 +6312,19 @@
         <v>973253</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>914896</v>
+        <v>919063</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1028547</v>
+        <v>1031844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.22188033628557</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2085762064714083</v>
+        <v>0.2095260712765953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2344861514113991</v>
+        <v>0.2352376481271144</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>404403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>367051</v>
+        <v>362474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>447370</v>
+        <v>443786</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1820841341581543</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1652663413562566</v>
+        <v>0.1632053410611295</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2014302449210621</v>
+        <v>0.1998165026841675</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>776</v>
@@ -6362,19 +6362,19 @@
         <v>534017</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>497911</v>
+        <v>500363</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>569902</v>
+        <v>573885</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2466114757968043</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2299371813273131</v>
+        <v>0.2310699015980558</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2631831053769134</v>
+        <v>0.2650223944556041</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1191</v>
@@ -6383,19 +6383,19 @@
         <v>938421</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>881396</v>
+        <v>888551</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>994732</v>
+        <v>994626</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2139392370159971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2009388334590121</v>
+        <v>0.2025701092316752</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2267770317280481</v>
+        <v>0.2267528685594025</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>227459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200337</v>
+        <v>201211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>257920</v>
+        <v>255414</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3207558880461761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2825100138484712</v>
+        <v>0.2837418253899237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3637105682420348</v>
+        <v>0.3601776674456122</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>255</v>
@@ -6508,19 +6508,19 @@
         <v>196481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174224</v>
+        <v>175397</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218754</v>
+        <v>218880</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2684937867309752</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2380795840157679</v>
+        <v>0.2396818879393605</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2989294843929142</v>
+        <v>0.2991013210642025</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>458</v>
@@ -6529,19 +6529,19 @@
         <v>423940</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>391215</v>
+        <v>391837</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>462592</v>
+        <v>463181</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2942139577385035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2715029064802076</v>
+        <v>0.2719342335744776</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.321038479332854</v>
+        <v>0.3214469492724733</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>188523</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>162840</v>
+        <v>164347</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>216102</v>
+        <v>213609</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.265849249825847</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2296318613792585</v>
+        <v>0.2317570248035926</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3047409528612272</v>
+        <v>0.3012253049149411</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>246</v>
@@ -6579,19 +6579,19 @@
         <v>177056</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>160355</v>
+        <v>155820</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>202051</v>
+        <v>198378</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2419481901633846</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2191264805284038</v>
+        <v>0.2129294021219353</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2761044275189462</v>
+        <v>0.2710861057342314</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>423</v>
@@ -6600,19 +6600,19 @@
         <v>365578</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>332504</v>
+        <v>332937</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>397154</v>
+        <v>399202</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2537108121458433</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2307574302669546</v>
+        <v>0.231057753893478</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2756246089718012</v>
+        <v>0.2770455725364043</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>161337</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>137599</v>
+        <v>136691</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186108</v>
+        <v>186679</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2275121178931075</v>
+        <v>0.2275121178931076</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1940379482848009</v>
+        <v>0.1927578230931682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2624443949205754</v>
+        <v>0.263249528929613</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>250</v>
@@ -6650,19 +6650,19 @@
         <v>182725</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>161251</v>
+        <v>163098</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203113</v>
+        <v>203178</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2496951715592223</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2203511726678443</v>
+        <v>0.2228755823567369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2775566658940892</v>
+        <v>0.2776445741190501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>411</v>
@@ -6671,19 +6671,19 @@
         <v>344061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>310913</v>
+        <v>314881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>375408</v>
+        <v>378485</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2387780457758451</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2157735173614002</v>
+        <v>0.218527067045109</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2605323836280916</v>
+        <v>0.2626678145406872</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>131816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108249</v>
+        <v>111628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152737</v>
+        <v>153618</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1858827442348694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1526492874566706</v>
+        <v>0.1574141767621143</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2153852315383448</v>
+        <v>0.2166273450668691</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>250</v>
@@ -6721,19 +6721,19 @@
         <v>175529</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157224</v>
+        <v>153816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197910</v>
+        <v>196501</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2398628515464179</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2148481196562678</v>
+        <v>0.2101907278997636</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.270446727573358</v>
+        <v>0.2685207070378691</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>388</v>
@@ -6742,19 +6742,19 @@
         <v>307345</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>280089</v>
+        <v>277852</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>341589</v>
+        <v>335757</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.213297184339808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1943810448802973</v>
+        <v>0.1928287265128114</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2370624694410681</v>
+        <v>0.2330145848581877</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>1137114</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1076713</v>
+        <v>1075643</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1199321</v>
+        <v>1201279</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3245474438483716</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3073082129914898</v>
+        <v>0.3070028876931697</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3423022359748436</v>
+        <v>0.3428609238517811</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1316</v>
@@ -6867,19 +6867,19 @@
         <v>987552</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>938675</v>
+        <v>936867</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1036683</v>
+        <v>1037572</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2662811162213681</v>
+        <v>0.266281116221368</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2531019953314547</v>
+        <v>0.252614515464625</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2795287101964949</v>
+        <v>0.2797683471961392</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2316</v>
@@ -6888,19 +6888,19 @@
         <v>2124666</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2042506</v>
+        <v>2044294</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2202126</v>
+        <v>2208323</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2945862472320555</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2831947202225123</v>
+        <v>0.2834426495920457</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3053261552335203</v>
+        <v>0.3061853751589673</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>899732</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>847553</v>
+        <v>850424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>963214</v>
+        <v>961775</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2567955273200963</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.241902921120443</v>
+        <v>0.2427221914774514</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2749142025258577</v>
+        <v>0.2745034401436598</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1174</v>
@@ -6938,19 +6938,19 @@
         <v>837478</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>788614</v>
+        <v>794231</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>881783</v>
+        <v>880137</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2258153449832143</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.212639900185396</v>
+        <v>0.2141543608035354</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2377616528096465</v>
+        <v>0.2373180469527037</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2005</v>
@@ -6959,19 +6959,19 @@
         <v>1737210</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1668804</v>
+        <v>1664695</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1818913</v>
+        <v>1811483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2408651714523537</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2313806985786022</v>
+        <v>0.2308110126366149</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2521933967233707</v>
+        <v>0.2511631577925257</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>779113</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>727954</v>
+        <v>730045</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>835377</v>
+        <v>834706</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2223692157815591</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2077676421189161</v>
+        <v>0.2083645713365997</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2384276081821098</v>
+        <v>0.2382361706310732</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1251</v>
@@ -7009,19 +7009,19 @@
         <v>853227</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>809374</v>
+        <v>803810</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>901286</v>
+        <v>895437</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2300620666360668</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2182376031439023</v>
+        <v>0.2167371985973083</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2430205324287133</v>
+        <v>0.2414433018887338</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2018</v>
@@ -7030,19 +7030,19 @@
         <v>1632340</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1564844</v>
+        <v>1558725</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1708833</v>
+        <v>1704952</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2263249656353577</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2169665480413111</v>
+        <v>0.2161181361337486</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2369306975376286</v>
+        <v>0.2363926540983362</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>687732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>638910</v>
+        <v>638894</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>736423</v>
+        <v>736590</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.196287813049973</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1823534645936311</v>
+        <v>0.182348941425763</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2101848470741681</v>
+        <v>0.2102325533551914</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1578</v>
@@ -7080,19 +7080,19 @@
         <v>1030426</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>979156</v>
+        <v>985285</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1080416</v>
+        <v>1083354</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.277841472159351</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2640171491714767</v>
+        <v>0.2656696846696629</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2913206128232395</v>
+        <v>0.2921129408724441</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2327</v>
@@ -7101,19 +7101,19 @@
         <v>1718158</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1649339</v>
+        <v>1650525</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1785665</v>
+        <v>1788692</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.238223615680233</v>
+        <v>0.2382236156802331</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2286818816100698</v>
+        <v>0.2288463110586469</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2475834675364065</v>
+        <v>0.2480032898377046</v>
       </c>
     </row>
     <row r="23">
